--- a/tut06/output/2001EE77.xlsx
+++ b/tut06/output/2001EE77.xlsx
@@ -1,30 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\server\pull\2001MM30_2022\tut06\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715"/>
   </bookViews>
   <sheets>
-    <sheet name="2001EE77" sheetId="1" r:id="rId1"/>
+    <sheet name="2001CB02" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Roll</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Total Attendance Count</t>
   </si>
   <si>
@@ -38,13 +43,58 @@
   </si>
   <si>
     <t>Absent</t>
+  </si>
+  <si>
+    <t>9901ME99</t>
+  </si>
+  <si>
+    <t>Top Coder</t>
+  </si>
+  <si>
+    <t>Date 1</t>
+  </si>
+  <si>
+    <t>Date 2</t>
+  </si>
+  <si>
+    <t>Date 3</t>
+  </si>
+  <si>
+    <t>Date 4</t>
+  </si>
+  <si>
+    <t>Date 5</t>
+  </si>
+  <si>
+    <t>Date 6</t>
+  </si>
+  <si>
+    <t>Date 7</t>
+  </si>
+  <si>
+    <t>Date 8</t>
+  </si>
+  <si>
+    <t>Date 9</t>
+  </si>
+  <si>
+    <t>Date 10</t>
+  </si>
+  <si>
+    <t>Date 11</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>Date Last</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,16 +102,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -69,18 +419,218 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -95,44 +645,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -159,14 +709,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -193,6 +744,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -204,201 +756,256 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
